--- a/_summary/RQ2.1_01.xlsx
+++ b/_summary/RQ2.1_01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ICSE2016\_summary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\data\ICSE2016\_summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1996,7 +1996,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2153,6 +2153,14 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2588,7 +2596,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2599,6 +2607,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2924,11 +2941,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E654"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A631" workbookViewId="0">
-      <selection activeCell="A645" sqref="A645"/>
+    <sheetView tabSelected="1" topLeftCell="A634" workbookViewId="0">
+      <selection activeCell="H644" sqref="H644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -3587,19 +3608,19 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
+      <c r="A44" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="5">
         <v>1.89272258079657E-3</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="5">
         <v>5.6318128455382999E-4</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="5">
         <v>3.36076967169824</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="5">
         <v>7.7725612941702998E-4</v>
       </c>
     </row>
@@ -3742,19 +3763,19 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
+      <c r="A54" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="5">
         <v>1.94092314064815E-3</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="5">
         <v>5.8196430435450397E-4</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="5">
         <v>3.3351240378926001</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="5">
         <v>8.5261358954434097E-4</v>
       </c>
     </row>
@@ -3897,19 +3918,19 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
+      <c r="A64" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="5">
         <v>4.1777537032476999E-3</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="5">
         <v>2.13518831911097E-3</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="5">
         <v>1.95662071858242</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="5">
         <v>5.0392077271047497E-2</v>
       </c>
     </row>
@@ -4052,19 +4073,19 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
+      <c r="A74" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="5">
         <v>3.3167379850073098E-3</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="5">
         <v>8.0734496434949597E-4</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="5">
         <v>4.1082042143902102</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="6">
         <v>3.9874745721668997E-5</v>
       </c>
     </row>
@@ -4190,19 +4211,19 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
+      <c r="A83" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="5">
         <v>2.1010867381923998E-3</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="5">
         <v>6.6225071072690297E-4</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="5">
         <v>3.1726455014086601</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="5">
         <v>1.5105684588640699E-3</v>
       </c>
     </row>
@@ -4345,19 +4366,19 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
+      <c r="A93" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="5">
         <v>1.7812960195325101E-3</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="5">
         <v>4.8759052574301199E-4</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="5">
         <v>3.6532621646372001</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="5">
         <v>2.5892962227719698E-4</v>
       </c>
     </row>
@@ -4878,19 +4899,19 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A127" t="s">
+      <c r="A127" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="5">
         <v>2.0571987462904102E-3</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="5">
         <v>9.2831015775079995E-4</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="5">
         <v>2.21606833568943</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="5">
         <v>2.6686822428927299E-2</v>
       </c>
     </row>
@@ -5464,19 +5485,19 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A165" t="s">
+      <c r="A165" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="5">
         <v>3.4259562533564699E-3</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="5">
         <v>8.1435731462480303E-4</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="5">
         <v>4.2069447794361698</v>
       </c>
-      <c r="E165" s="1">
+      <c r="E165" s="6">
         <v>2.5884635866687E-5</v>
       </c>
     </row>
@@ -5912,19 +5933,19 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A194" t="s">
+      <c r="A194" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="5">
         <v>3.8715088175578999E-3</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="5">
         <v>1.0319091814399201E-3</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="5">
         <v>3.7517921995379799</v>
       </c>
-      <c r="E194">
+      <c r="E194" s="5">
         <v>1.7557496492584101E-4</v>
       </c>
     </row>
@@ -6067,19 +6088,19 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A204" t="s">
+      <c r="A204" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="5">
         <v>8.0465549829249403E-3</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="5">
         <v>2.69418051479588E-3</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="5">
         <v>2.9866428543799901</v>
       </c>
-      <c r="E204">
+      <c r="E204" s="5">
         <v>2.8205902316578201E-3</v>
       </c>
     </row>
@@ -6999,19 +7020,19 @@
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A265" t="s">
+      <c r="A265" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="5">
         <v>6.77862090359687E-3</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="5">
         <v>1.8019725495539401E-3</v>
       </c>
-      <c r="D265">
+      <c r="D265" s="5">
         <v>3.7617781165838702</v>
       </c>
-      <c r="E265">
+      <c r="E265" s="5">
         <v>1.6870968472614101E-4</v>
       </c>
     </row>
@@ -7154,19 +7175,19 @@
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A275" t="s">
+      <c r="A275" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="5">
         <v>2.5486392371775399E-3</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="5">
         <v>9.3152983291535903E-4</v>
       </c>
-      <c r="D275">
+      <c r="D275" s="5">
         <v>2.7359716748965499</v>
       </c>
-      <c r="E275">
+      <c r="E275" s="5">
         <v>6.2196379414911204E-3</v>
       </c>
     </row>
@@ -8290,19 +8311,19 @@
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A348" t="s">
+      <c r="A348" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B348">
+      <c r="B348" s="5">
         <v>8.1160833430406892E-3</v>
       </c>
-      <c r="C348">
+      <c r="C348" s="5">
         <v>1.9551471737479899E-3</v>
       </c>
-      <c r="D348">
+      <c r="D348" s="5">
         <v>4.15113677988868</v>
       </c>
-      <c r="E348" s="1">
+      <c r="E348" s="6">
         <v>3.3082796975693102E-5</v>
       </c>
     </row>
@@ -8687,19 +8708,19 @@
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A374" t="s">
+      <c r="A374" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="B374">
+      <c r="B374" s="5">
         <v>1.8969358990604201E-2</v>
       </c>
-      <c r="C374">
+      <c r="C374" s="5">
         <v>3.6715454920962501E-3</v>
       </c>
-      <c r="D374">
+      <c r="D374" s="5">
         <v>5.1665869404150202</v>
       </c>
-      <c r="E374" s="1">
+      <c r="E374" s="6">
         <v>2.3840733288956301E-7</v>
       </c>
     </row>
@@ -8825,19 +8846,19 @@
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A383" t="s">
+      <c r="A383" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="B383">
+      <c r="B383" s="5">
         <v>6.1662198258819302E-3</v>
       </c>
-      <c r="C383">
+      <c r="C383" s="5">
         <v>1.6935007348236101E-3</v>
       </c>
-      <c r="D383">
+      <c r="D383" s="5">
         <v>3.64110844423353</v>
       </c>
-      <c r="E383">
+      <c r="E383" s="5">
         <v>2.7146675233605299E-4</v>
       </c>
     </row>
@@ -8963,19 +8984,19 @@
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A392" t="s">
+      <c r="A392" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="B392">
+      <c r="B392" s="5">
         <v>5.7079545013730198E-3</v>
       </c>
-      <c r="C392">
+      <c r="C392" s="5">
         <v>1.20794840348742E-3</v>
       </c>
-      <c r="D392">
+      <c r="D392" s="5">
         <v>4.72532972840051</v>
       </c>
-      <c r="E392" s="1">
+      <c r="E392" s="6">
         <v>2.2974226917352098E-6</v>
       </c>
     </row>
@@ -9360,19 +9381,19 @@
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A418" t="s">
+      <c r="A418" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="B418">
+      <c r="B418" s="5">
         <v>8.7460268253762401E-3</v>
       </c>
-      <c r="C418">
+      <c r="C418" s="5">
         <v>4.0124429421991197E-3</v>
       </c>
-      <c r="D418">
+      <c r="D418" s="5">
         <v>2.17972615470583</v>
       </c>
-      <c r="E418">
+      <c r="E418" s="5">
         <v>2.9277766619128301E-2</v>
       </c>
     </row>
@@ -9515,19 +9536,19 @@
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A428" t="s">
+      <c r="A428" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="B428">
+      <c r="B428" s="5">
         <v>3.9692267335706003E-3</v>
       </c>
-      <c r="C428">
+      <c r="C428" s="5">
         <v>6.2636742307352995E-4</v>
       </c>
-      <c r="D428">
+      <c r="D428" s="5">
         <v>6.3368984199305096</v>
       </c>
-      <c r="E428" s="1">
+      <c r="E428" s="6">
         <v>2.3443644021323897E-10</v>
       </c>
     </row>
@@ -9721,19 +9742,19 @@
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A441" t="s">
+      <c r="A441" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="B441">
+      <c r="B441" s="5">
         <v>9.0252227377312297E-3</v>
       </c>
-      <c r="C441">
+      <c r="C441" s="5">
         <v>3.76993310679517E-3</v>
       </c>
-      <c r="D441">
+      <c r="D441" s="5">
         <v>2.3940007639561598</v>
       </c>
-      <c r="E441">
+      <c r="E441" s="5">
         <v>1.66657140787171E-2</v>
       </c>
     </row>
@@ -10118,19 +10139,19 @@
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A467" t="s">
+      <c r="A467" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="B467">
+      <c r="B467" s="5">
         <v>2.63287496851924E-3</v>
       </c>
-      <c r="C467">
+      <c r="C467" s="5">
         <v>4.2073918456630798E-4</v>
       </c>
-      <c r="D467">
+      <c r="D467" s="5">
         <v>6.2577365386900397</v>
       </c>
-      <c r="E467" s="1">
+      <c r="E467" s="6">
         <v>3.90604952871976E-10</v>
       </c>
     </row>
@@ -10273,19 +10294,19 @@
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A477" t="s">
+      <c r="A477" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="B477">
+      <c r="B477" s="5">
         <v>1.56598679585273E-3</v>
       </c>
-      <c r="C477">
+      <c r="C477" s="5">
         <v>3.58048394048485E-4</v>
       </c>
-      <c r="D477">
+      <c r="D477" s="5">
         <v>4.3736735644753804</v>
       </c>
-      <c r="E477" s="1">
+      <c r="E477" s="6">
         <v>1.2217302572352E-5</v>
       </c>
     </row>
@@ -10428,19 +10449,19 @@
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A487" t="s">
+      <c r="A487" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="B487">
+      <c r="B487" s="5">
         <v>1.82938141469384E-3</v>
       </c>
-      <c r="C487">
+      <c r="C487" s="5">
         <v>6.2482884942952402E-4</v>
       </c>
-      <c r="D487">
+      <c r="D487" s="5">
         <v>2.9278120182256102</v>
       </c>
-      <c r="E487">
+      <c r="E487" s="5">
         <v>3.41356360797528E-3</v>
       </c>
     </row>
@@ -10704,19 +10725,19 @@
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A505" t="s">
+      <c r="A505" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="B505">
+      <c r="B505" s="5">
         <v>1.7865310669007699E-2</v>
       </c>
-      <c r="C505">
+      <c r="C505" s="5">
         <v>3.5210188387647902E-3</v>
       </c>
-      <c r="D505">
+      <c r="D505" s="5">
         <v>5.0739037440864596</v>
       </c>
-      <c r="E505" s="1">
+      <c r="E505" s="6">
         <v>3.8973625768252202E-7</v>
       </c>
     </row>
@@ -11275,19 +11296,19 @@
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A543" t="s">
+      <c r="A543" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="B543">
+      <c r="B543" s="5">
         <v>3.1806173705178501E-3</v>
       </c>
-      <c r="C543">
+      <c r="C543" s="5">
         <v>7.2951235066418701E-4</v>
       </c>
-      <c r="D543">
+      <c r="D543" s="5">
         <v>4.3599225806417703</v>
       </c>
-      <c r="E543" s="1">
+      <c r="E543" s="6">
         <v>1.30108467635712E-5</v>
       </c>
     </row>
@@ -11568,19 +11589,19 @@
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A562" t="s">
+      <c r="A562" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="B562">
+      <c r="B562" s="5">
         <v>2.5375120324570202E-3</v>
       </c>
-      <c r="C562">
+      <c r="C562" s="5">
         <v>6.7896007561828403E-4</v>
       </c>
-      <c r="D562">
+      <c r="D562" s="5">
         <v>3.7373508746391</v>
       </c>
-      <c r="E562">
+      <c r="E562" s="5">
         <v>1.85969320866159E-4</v>
       </c>
     </row>
@@ -11861,19 +11882,19 @@
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A581" t="s">
+      <c r="A581" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="B581">
+      <c r="B581" s="5">
         <v>1.5261622484817E-3</v>
       </c>
-      <c r="C581">
+      <c r="C581" s="5">
         <v>5.9206072630944395E-4</v>
       </c>
-      <c r="D581">
+      <c r="D581" s="5">
         <v>2.5777123539250701</v>
       </c>
-      <c r="E581">
+      <c r="E581" s="5">
         <v>9.9456750388976396E-3</v>
       </c>
     </row>
@@ -12067,19 +12088,19 @@
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A594" t="s">
+      <c r="A594" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="B594">
+      <c r="B594" s="5">
         <v>5.0175200885058399E-3</v>
       </c>
-      <c r="C594">
+      <c r="C594" s="5">
         <v>8.4835995768551599E-4</v>
       </c>
-      <c r="D594">
+      <c r="D594" s="5">
         <v>5.9143763717874798</v>
       </c>
-      <c r="E594" s="1">
+      <c r="E594" s="6">
         <v>3.3313534243784498E-9</v>
       </c>
     </row>
@@ -12222,19 +12243,19 @@
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A604" t="s">
+      <c r="A604" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="B604">
+      <c r="B604" s="5">
         <v>2.5763343085100899E-3</v>
       </c>
-      <c r="C604">
+      <c r="C604" s="5">
         <v>5.2030487024993296E-4</v>
       </c>
-      <c r="D604">
+      <c r="D604" s="5">
         <v>4.9515859947121399</v>
       </c>
-      <c r="E604" s="1">
+      <c r="E604" s="6">
         <v>7.3611077787495005E-7</v>
       </c>
     </row>
@@ -12844,19 +12865,19 @@
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A645" t="s">
+      <c r="A645" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="B645">
+      <c r="B645" s="5">
         <v>2.1681109127813501E-3</v>
       </c>
-      <c r="C645">
+      <c r="C645" s="5">
         <v>4.6539852336073897E-4</v>
       </c>
-      <c r="D645">
+      <c r="D645" s="5">
         <v>4.6586114995057804</v>
       </c>
-      <c r="E645" s="1">
+      <c r="E645" s="6">
         <v>3.1834936088707899E-6</v>
       </c>
     </row>
@@ -12982,24 +13003,25 @@
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A654" t="s">
+      <c r="A654" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="B654">
+      <c r="B654" s="5">
         <v>2.1903818617082901E-2</v>
       </c>
-      <c r="C654">
+      <c r="C654" s="5">
         <v>7.2238072171410504E-3</v>
       </c>
-      <c r="D654">
+      <c r="D654" s="5">
         <v>3.0321709811286599</v>
       </c>
-      <c r="E654">
+      <c r="E654" s="5">
         <v>2.4280163005334999E-3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>